--- a/individual_results/avey/491.xlsx
+++ b/individual_results/avey/491.xlsx
@@ -555,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -700,12 +700,16 @@
       <c r="B4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.2857142857142857</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -728,11 +732,15 @@
       <c r="T4" t="n">
         <v>1</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -743,12 +751,16 @@
       <c r="B5" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.625</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.7142857142857143</v>
@@ -771,11 +783,15 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -787,7 +803,7 @@
         <v>0.6309297535714575</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -796,7 +812,7 @@
         <v>0.6309297535714575</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -841,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -860,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -869,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -914,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -933,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -942,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -987,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1006,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1015,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1060,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1078,12 +1094,16 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>3</v>
@@ -1106,11 +1126,15 @@
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/491.xlsx
+++ b/individual_results/avey/491.xlsx
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.1666666666666667</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0.2</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -704,24 +704,18 @@
         <v>0.4</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.3333333333333334</v>
       </c>
@@ -755,24 +749,18 @@
         <v>0.625</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.5</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -809,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6309297535714575</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -818,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -836,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6309297535714575</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0.3868528072345416</v>
@@ -955,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -964,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -982,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1028,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1037,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1055,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1098,24 +1086,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>5</v>
       </c>
